--- a/StPetersPleaseData_KC.xlsx
+++ b/StPetersPleaseData_KC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="12420" activeTab="2"/>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stpeterspleasedata" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -270,19 +270,34 @@
     <t>I had a rough life. I'm surprised to be here so soon, but it was probably comin'.</t>
   </si>
   <si>
-    <t>My life was fun. Lots and lots of fun.Not everyone agreed with me, but I have no regrets.</t>
-  </si>
-  <si>
-    <t>I had 4 wives. They all left me cuz they caught me with other women. It's fine, the women at the strip club were hotter anyways.</t>
-  </si>
-  <si>
     <t>My past is pretty messed up. I drank every night to try and forget it.</t>
   </si>
   <si>
-    <t>I supported over a dozen non-profit organizations, usually ones to help those in need.</t>
-  </si>
-  <si>
     <t>Fame. Anything to get my name into the presses. The press doesn’t want the whole story anyways, only the facts that are interesting.</t>
+  </si>
+  <si>
+    <t>I had several houses in various states. At least I gave some of my money to some meaningless non-profits.</t>
+  </si>
+  <si>
+    <t>George Norris</t>
+  </si>
+  <si>
+    <t>My life was fun. Lots and lots of fun. I have no regrets.</t>
+  </si>
+  <si>
+    <t>I had 4 wives. They all left when caught me with other women. It's fine, the women at the strip club were hotter anyways.</t>
+  </si>
+  <si>
+    <t>Eh? What's that sonny?! Speak up! ...No I don’t want any grape juice!</t>
+  </si>
+  <si>
+    <t>I did what I could for my family, but sometimes it wasn't quite enough.</t>
+  </si>
+  <si>
+    <t>Although never caught, I spent countless evenings with various women.</t>
+  </si>
+  <si>
+    <t>The world is full of terrible things. I tried to make it one less through compassion for others.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -344,7 +359,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -359,6 +373,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,8 +465,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tabQuestionData" displayName="tabQuestionData" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tabQuestionData" displayName="tabQuestionData" ref="A1:E25" totalsRowShown="0">
+  <autoFilter ref="A1:E25"/>
   <tableColumns count="5">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="question"/>
@@ -459,8 +479,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tabPeopleEntry" displayName="tabPeopleEntry" ref="A1:J8" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:J8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tabPeopleEntry" displayName="tabPeopleEntry" ref="A1:J9" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:J9"/>
   <tableColumns count="10">
     <tableColumn id="1" name="id" dataDxfId="9"/>
     <tableColumn id="2" name="name" dataDxfId="8"/>
@@ -732,7 +752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1024,13 +1044,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,110 +1332,158 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1">
-      <c r="A17" s="6">
+    <row r="17" spans="1:5" s="6" customFormat="1">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="7" customFormat="1">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5" s="6" customFormat="1">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5" s="6" customFormat="1">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="D20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="7" customFormat="1">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1433,8 +1501,8 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1528,7 +1596,7 @@
       </c>
       <c r="N2">
         <f>COUNTIF(E:G,M2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30">
@@ -1654,7 +1722,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30">
@@ -1700,32 +1768,32 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="30">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>15</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>16</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>17</v>
       </c>
       <c r="L7" t="s">
@@ -1740,28 +1808,34 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="H8" s="11">
+        <v>18</v>
+      </c>
+      <c r="I8" s="11">
+        <v>19</v>
+      </c>
+      <c r="J8" s="11">
+        <v>20</v>
+      </c>
       <c r="M8" t="s">
         <v>22</v>
       </c>
@@ -1770,13 +1844,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="13">
+        <v>21</v>
+      </c>
+      <c r="I9" s="13">
+        <v>22</v>
+      </c>
+      <c r="J9" s="13">
+        <v>23</v>
+      </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1785,7 +1887,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1794,7 +1896,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
